--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_28.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2141585.769094304</v>
+        <v>2159960.458560425</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>237.9332843063845</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +674,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>87.6227527597793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>70.80276983270129</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>155.3197306044665</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>80.63410908555663</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +914,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.678593880211542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>40.91460566762539</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>105.7970792681973</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>301.5376148414004</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>238.4631285907687</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20.31656064018903</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>97.72840025712621</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,10 +1537,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>38.0896725325832</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>57.97948033333839</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>149.0799667719507</v>
+        <v>42.96165421080024</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1822,16 +1822,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,13 +2059,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>175.0698676614145</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,22 +2239,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>91.51373854094128</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -2287,7 +2287,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>57.58328081410419</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2296,10 +2296,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>63.84216607141764</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>24.68164956070928</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>61.71307596747405</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>12.68762643336706</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2770,7 +2770,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>207.0920728594996</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,10 +3187,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>5.459896748110454</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>27.29155389798918</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3244,16 +3244,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>113.380453944544</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>225.2064798074088</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>57.64843562452406</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3712,10 +3712,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>164.3675597136118</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3797,7 +3797,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>170.4824349897576</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>169.7438101404424</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,19 +4132,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>183.6274390026643</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
@@ -4334,13 +4334,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.723949158869</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1750.153230744814</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4419,13 +4419,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>393.6767897220517</v>
+        <v>656.6110348804735</v>
       </c>
       <c r="D4" t="n">
-        <v>393.6767897220517</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="E4" t="n">
-        <v>393.6767897220517</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F4" t="n">
-        <v>393.6767897220517</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2090.781606227855</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="C5" t="n">
-        <v>1721.819089287443</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4577,7 +4577,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.477155601806</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="Y5" t="n">
-        <v>2090.781606227855</v>
+        <v>2035.589960916693</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337.1618402196266</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>337.1618402196266</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>337.1618402196266</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>337.1618402196266</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>509.2375219814871</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>509.2375219814871</v>
       </c>
       <c r="V7" t="n">
-        <v>444.0275768541693</v>
+        <v>509.2375219814871</v>
       </c>
       <c r="W7" t="n">
-        <v>444.0275768541693</v>
+        <v>509.2375219814871</v>
       </c>
       <c r="X7" t="n">
-        <v>337.1618402196266</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="Y7" t="n">
-        <v>337.1618402196266</v>
+        <v>281.2479710834698</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1560.797780174034</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C8" t="n">
-        <v>1191.835263233623</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233623</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4838,16 +4838,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2337.536952213968</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2337.536952213968</v>
+        <v>2401.248554487333</v>
       </c>
       <c r="X8" t="n">
-        <v>2337.536952213968</v>
+        <v>2027.782796226253</v>
       </c>
       <c r="Y8" t="n">
-        <v>1947.397620238156</v>
+        <v>1637.643464250441</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>385.7080860629399</v>
       </c>
       <c r="U10" t="n">
-        <v>409.5384547146241</v>
+        <v>385.7080860629399</v>
       </c>
       <c r="V10" t="n">
-        <v>409.5384547146241</v>
+        <v>385.7080860629399</v>
       </c>
       <c r="W10" t="n">
-        <v>120.1212846776635</v>
+        <v>385.7080860629399</v>
       </c>
       <c r="X10" t="n">
-        <v>120.1212846776635</v>
+        <v>385.7080860629399</v>
       </c>
       <c r="Y10" t="n">
-        <v>120.1212846776635</v>
+        <v>385.7080860629399</v>
       </c>
     </row>
     <row r="11">
@@ -5027,7 +5027,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5039,25 +5039,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1206.718781115524</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395485</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>731.0291971045608</v>
+        <v>714.6010158349783</v>
       </c>
       <c r="C13" t="n">
-        <v>731.0291971045608</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="D13" t="n">
-        <v>580.9125576922251</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E13" t="n">
-        <v>432.9994641098319</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
-        <v>286.1095166119215</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
         <v>247.6350999123426</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1440.351138908066</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1440.351138908066</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1440.351138908066</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>1440.351138908066</v>
       </c>
       <c r="V13" t="n">
-        <v>1020.446367141521</v>
+        <v>1185.666650702179</v>
       </c>
       <c r="W13" t="n">
-        <v>731.0291971045608</v>
+        <v>896.249480665218</v>
       </c>
       <c r="X13" t="n">
-        <v>731.0291971045608</v>
+        <v>896.249480665218</v>
       </c>
       <c r="Y13" t="n">
-        <v>731.0291971045608</v>
+        <v>896.249480665218</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5276,7 +5276,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514085</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5364,7 +5364,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
         <v>1558.376451307619</v>
@@ -5373,10 +5373,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V16" t="n">
-        <v>986.0022165609664</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W16" t="n">
-        <v>696.5850465240057</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="X16" t="n">
-        <v>468.5954956259884</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="Y16" t="n">
-        <v>247.8029164824583</v>
+        <v>420.3226148324574</v>
       </c>
     </row>
     <row r="17">
@@ -5504,10 +5504,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028562</v>
@@ -5516,16 +5516,16 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5534,7 +5534,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5701,22 +5701,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>675.007103038344</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V19" t="n">
-        <v>498.168852875299</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W19" t="n">
-        <v>208.7516828383384</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,46 +5726,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899127</v>
@@ -5832,19 +5832,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1427.741252113634</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3982.180927373294</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C22" t="n">
-        <v>3813.244744445387</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D22" t="n">
-        <v>3663.128105033052</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E22" t="n">
-        <v>3570.689985294727</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F22" t="n">
-        <v>3570.689985294727</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>3570.689985294727</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>4749.779469576118</v>
+        <v>1329.676237004471</v>
       </c>
       <c r="T22" t="n">
-        <v>4525.994054365623</v>
+        <v>1105.890821793977</v>
       </c>
       <c r="U22" t="n">
-        <v>4236.865415579181</v>
+        <v>816.762183007535</v>
       </c>
       <c r="V22" t="n">
-        <v>3982.180927373294</v>
+        <v>816.762183007535</v>
       </c>
       <c r="W22" t="n">
-        <v>3982.180927373294</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X22" t="n">
-        <v>3982.180927373294</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y22" t="n">
-        <v>3982.180927373294</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,25 +5972,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,16 +6005,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211721</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1427.741252113634</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1757.603879777666</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>738.7219969042602</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C25" t="n">
-        <v>738.7219969042602</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D25" t="n">
-        <v>738.7219969042602</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E25" t="n">
-        <v>674.2349604684848</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V25" t="n">
-        <v>1209.787631771461</v>
+        <v>650.0761438861124</v>
       </c>
       <c r="W25" t="n">
-        <v>920.3704617344999</v>
+        <v>650.0761438861124</v>
       </c>
       <c r="X25" t="n">
-        <v>920.3704617344999</v>
+        <v>650.0761438861124</v>
       </c>
       <c r="Y25" t="n">
-        <v>920.3704617344999</v>
+        <v>429.2835647425823</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6203,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,16 +6236,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>2786.879505108311</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211721</v>
+        <v>3128.721707800139</v>
       </c>
       <c r="M27" t="n">
-        <v>1427.741252113634</v>
+        <v>3436.041841080101</v>
       </c>
       <c r="N27" t="n">
-        <v>1757.603879777666</v>
+        <v>3765.904468744134</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>4045.444533962831</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S27" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T27" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U27" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W27" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X27" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y27" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>434.3285960683721</v>
+        <v>110.0328757364142</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404652</v>
+        <v>110.0328757364142</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>110.0328757364142</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>110.0328757364142</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>110.0328757364142</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V28" t="n">
-        <v>786.0822064765186</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W28" t="n">
-        <v>496.665036439558</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="X28" t="n">
-        <v>496.665036439558</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="Y28" t="n">
-        <v>496.665036439558</v>
+        <v>110.0328757364142</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6461,10 +6461,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6494,19 +6494,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>2911.709630095316</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>3158.47475800178</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M30" t="n">
-        <v>3465.794891281741</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N30" t="n">
-        <v>3795.657518945774</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>4075.197584164472</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>4565.745155698578</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6646,22 +6646,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1089.812348494162</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>800.6837097077201</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>545.9992215018333</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>545.9992215018333</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>318.0096706038159</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y31" t="n">
         <v>97.21709146028584</v>
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6725,25 +6725,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6786,7 +6786,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3633.606624064895</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="C34" t="n">
-        <v>3464.670441136988</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="D34" t="n">
-        <v>3464.670441136988</v>
+        <v>404.4942306781028</v>
       </c>
       <c r="E34" t="n">
-        <v>3464.670441136988</v>
+        <v>404.4942306781028</v>
       </c>
       <c r="F34" t="n">
-        <v>3464.670441136988</v>
+        <v>404.4942306781028</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916675</v>
+        <v>236.3189089979234</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>4660.934562929845</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>4660.934562929845</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U34" t="n">
-        <v>4371.805924143403</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V34" t="n">
-        <v>4371.805924143403</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W34" t="n">
-        <v>4082.388754106442</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="X34" t="n">
-        <v>3854.399203208425</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="Y34" t="n">
-        <v>3633.606624064895</v>
+        <v>554.6108700904385</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,25 +6923,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6962,7 +6962,7 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -7014,25 +7014,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>303.4575213834697</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115523</v>
+        <v>550.2226492899338</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>857.5427825698953</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>416.2699138005285</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C37" t="n">
-        <v>247.3337308726216</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
         <v>97.21709146028584</v>
@@ -7117,28 +7117,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1073.395445980185</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1073.395445980185</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>818.7109577742983</v>
+        <v>982.3063390367042</v>
       </c>
       <c r="W37" t="n">
-        <v>818.7109577742983</v>
+        <v>692.8891689997437</v>
       </c>
       <c r="X37" t="n">
-        <v>818.7109577742983</v>
+        <v>464.8996181017263</v>
       </c>
       <c r="Y37" t="n">
-        <v>597.9183786307682</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="38">
@@ -7172,19 +7172,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7360,22 +7360,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1332.888432463345</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="V40" t="n">
-        <v>1244.231782352015</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W40" t="n">
-        <v>954.8146123150548</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X40" t="n">
-        <v>726.8250614170374</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y40" t="n">
-        <v>506.0324822735073</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7409,28 +7409,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7442,19 +7442,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>2771.824048372322</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>3484.747546292012</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>4289.159124556162</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.2811958984813</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C43" t="n">
-        <v>527.3450129705744</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D43" t="n">
-        <v>527.3450129705744</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E43" t="n">
-        <v>527.3450129705744</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S43" t="n">
-        <v>1326.711790770268</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T43" t="n">
-        <v>1326.711790770268</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U43" t="n">
-        <v>1326.711790770268</v>
+        <v>4148.020508932908</v>
       </c>
       <c r="V43" t="n">
-        <v>1326.711790770268</v>
+        <v>4148.020508932908</v>
       </c>
       <c r="W43" t="n">
-        <v>1326.711790770268</v>
+        <v>3858.603338895948</v>
       </c>
       <c r="X43" t="n">
-        <v>1098.722239872251</v>
+        <v>3630.613787997931</v>
       </c>
       <c r="Y43" t="n">
-        <v>877.929660728721</v>
+        <v>3459.155393916676</v>
       </c>
     </row>
     <row r="44">
@@ -7646,28 +7646,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7725,25 +7725,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M45" t="n">
-        <v>966.6932390011339</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N45" t="n">
-        <v>1296.555866665167</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O45" t="n">
-        <v>1966.019627967826</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7831,25 +7831,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
   </sheetData>
@@ -8067,13 +8067,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,19 +8766,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776745</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,28 +9480,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>87.16935584025367</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9723,22 +9723,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>87.16935584025367</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>96.03744927814574</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>87.16935584025367</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776736</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>15.83804904622875</v>
       </c>
       <c r="L36" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>409.7003683229575</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,16 +11373,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>159.0121003135241</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,10 +23425,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>128.4038959307944</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>51.9848720704544</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>30.75201340998657</v>
+        <v>136.870325971137</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>77.06777566241345</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24127,22 +24127,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>54.9202241056279</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>140.337529169499</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,10 +24184,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>82.59179657515153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>227.4559937631187</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>118.1189042144632</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>153.8059420300105</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24886,10 +24886,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>14.45548819888961</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="32">
@@ -25075,10 +25075,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>161.0336717152671</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>121.6222744695469</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -25132,16 +25132,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25357,25 +25357,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>108.1671071138453</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>26.93116351641919</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>108.8451328388535</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25600,10 +25600,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>57.18000134477742</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,25 +25834,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>27.4383749938456</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>48.84084321165241</v>
       </c>
     </row>
     <row r="44">
@@ -26020,19 +26020,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26071,25 +26071,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>42.08221638637286</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>849676.7773109151</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>849676.7773109151</v>
+        <v>849676.7773109154</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="14">
@@ -26314,46 +26314,46 @@
         <v>574729.2389049989</v>
       </c>
       <c r="C2" t="n">
+        <v>574729.2389049989</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049986</v>
-      </c>
-      <c r="D2" t="n">
-        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="F2" t="n">
+        <v>547440.6836327923</v>
+      </c>
+      <c r="G2" t="n">
         <v>547440.683632792</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>547440.6836327921</v>
-      </c>
-      <c r="H2" t="n">
-        <v>547440.683632792</v>
       </c>
       <c r="I2" t="n">
         <v>547440.683632792</v>
       </c>
       <c r="J2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="K2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="L2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327924</v>
       </c>
       <c r="M2" t="n">
+        <v>547440.6836327919</v>
+      </c>
+      <c r="N2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="O2" t="n">
         <v>547440.6836327921</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>547440.6836327921</v>
-      </c>
-      <c r="O2" t="n">
-        <v>547440.683632792</v>
-      </c>
-      <c r="P2" t="n">
-        <v>547440.683632792</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-275116.8168582235</v>
+        <v>-272588.4956947813</v>
       </c>
       <c r="C6" t="n">
-        <v>314851.0623563207</v>
+        <v>317379.3835197632</v>
       </c>
       <c r="D6" t="n">
-        <v>314851.0623563206</v>
+        <v>317379.383519763</v>
       </c>
       <c r="E6" t="n">
-        <v>-101045.0435831199</v>
+        <v>-99010.22434512302</v>
       </c>
       <c r="F6" t="n">
-        <v>424114.9928937762</v>
+        <v>426149.8121317733</v>
       </c>
       <c r="G6" t="n">
-        <v>424114.9928937763</v>
+        <v>426149.812131773</v>
       </c>
       <c r="H6" t="n">
-        <v>424114.9928937762</v>
+        <v>426149.8121317732</v>
       </c>
       <c r="I6" t="n">
-        <v>424114.9928937762</v>
+        <v>426149.812131773</v>
       </c>
       <c r="J6" t="n">
-        <v>247691.7737011832</v>
+        <v>249726.5929391804</v>
       </c>
       <c r="K6" t="n">
-        <v>424114.9928937762</v>
+        <v>426149.8121317729</v>
       </c>
       <c r="L6" t="n">
-        <v>424114.9928937762</v>
+        <v>426149.8121317735</v>
       </c>
       <c r="M6" t="n">
-        <v>289313.9776599391</v>
+        <v>291348.7968979357</v>
       </c>
       <c r="N6" t="n">
-        <v>424114.9928937763</v>
+        <v>426149.8121317733</v>
       </c>
       <c r="O6" t="n">
-        <v>424114.9928937762</v>
+        <v>426149.8121317732</v>
       </c>
       <c r="P6" t="n">
-        <v>424114.9928937762</v>
+        <v>426149.8121317732</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,40 +26744,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="G3" t="n">
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="H3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>116.7497573142985</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>298.6151858962743</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,16 +27537,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>96.44405126592655</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>56.82580834555245</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>284.6387826854509</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>384.559344775842</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>184.1204997904589</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>119.9125761208399</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27910,13 +27910,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>26.21464362873451</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>110.7778401266443</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>159.5154195417483</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,19 +28059,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>127.3067052009581</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35030,10 +35030,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,22 +35732,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,16 +35969,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>420.3639292382666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
@@ -36443,19 +36443,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>369.5330580813618</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>345.29515423417</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>369.5330580813618</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>564.1615374009399</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091983</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37002,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,16 +37154,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37239,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>166.413487634168</v>
       </c>
       <c r="L36" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37476,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37713,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37950,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>366.1055152450488</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38187,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2159960.458560425</v>
+        <v>2235490.128225232</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>237.9332843063845</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -674,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>40.56696428347047</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,22 +819,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>70.80276983270129</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>22.35153719005456</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>80.63410908555663</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>284.5615160058696</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>20.97516701831656</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>40.91460566762539</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>83.58343582796546</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>238.4631285907687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>124.2196940949806</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>97.72840025712621</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1376,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.97948033333839</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>2.491034229877574</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>42.96165421080024</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -1813,25 +1815,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>12.25082275066678</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>127.4321567831319</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2056,19 +2058,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>33.35146980185879</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>57.58328081410419</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2296,7 +2298,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2488,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>26.97444673954864</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>24.68164956070928</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2561,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2725,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>12.68762643336706</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2773,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>209.4552226741785</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2852,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2998,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>206.8064269214866</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>115.5269768002176</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3083,13 +3085,13 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3190,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>27.29155389798918</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3320,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3433,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>51.44029960352438</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>225.2064798074088</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3661,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>174.3062600431766</v>
       </c>
       <c r="T40" t="n">
-        <v>164.3675597136118</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3797,7 +3799,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3910,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>55.72442649149368</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3955,16 +3957,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>169.7438101404424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4138,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4192,13 +4194,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>183.6274390026643</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1662.48357412947</v>
+        <v>2036.885894456657</v>
       </c>
       <c r="C2" t="n">
-        <v>1662.48357412947</v>
+        <v>1667.923377516245</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1309.657678909495</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>923.8694263112502</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>512.8835215216427</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>94.91971341982958</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.48357412947</v>
+        <v>2423.485734520778</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4419,13 +4421,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>656.6110348804735</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>506.4943954681378</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>705.5516739134498</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>557.4050153476338</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2035.589960916693</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C5" t="n">
-        <v>1954.141365880777</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>752.3647613633757</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>341.3788565737681</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,7 +4567,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4598,19 +4600,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2035.589960916693</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>2035.589960916693</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y5" t="n">
-        <v>2035.589960916693</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4650,37 +4652,37 @@
         <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>677.5250276678174</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>463.2366044859801</v>
       </c>
       <c r="T7" t="n">
-        <v>509.2375219814871</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="U7" t="n">
-        <v>509.2375219814871</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="V7" t="n">
-        <v>509.2375219814871</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="W7" t="n">
-        <v>509.2375219814871</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="X7" t="n">
-        <v>281.2479710834698</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="Y7" t="n">
-        <v>281.2479710834698</v>
+        <v>235.9284171545818</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1637.643464250441</v>
+        <v>1353.10866026757</v>
       </c>
       <c r="C8" t="n">
-        <v>1268.68094731003</v>
+        <v>1353.10866026757</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>1353.10866026757</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>967.320407669326</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>556.3345028797185</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>138.3706947779053</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>138.3706947779053</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2401.248554487333</v>
+        <v>2113.174258592772</v>
       </c>
       <c r="X8" t="n">
-        <v>2027.782796226253</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y8" t="n">
-        <v>1637.643464250441</v>
+        <v>1739.708500331692</v>
       </c>
     </row>
     <row r="9">
@@ -4878,10 +4880,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204.0596212327002</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>551.822117562146</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>382.8223173004784</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>225.0739447330085</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>385.7080860629399</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>385.7080860629399</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>385.7080860629399</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>385.7080860629399</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>385.7080860629399</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y10" t="n">
-        <v>385.7080860629399</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="11">
@@ -5027,13 +5029,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5045,13 +5047,13 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5118,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>714.6010158349783</v>
+        <v>672.4909068465487</v>
       </c>
       <c r="C13" t="n">
-        <v>545.6648329070714</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="D13" t="n">
-        <v>395.5481934947356</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1440.351138908066</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1440.351138908066</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1440.351138908066</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U13" t="n">
-        <v>1440.351138908066</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V13" t="n">
-        <v>1185.666650702179</v>
+        <v>672.4909068465487</v>
       </c>
       <c r="W13" t="n">
-        <v>896.249480665218</v>
+        <v>672.4909068465487</v>
       </c>
       <c r="X13" t="n">
-        <v>896.249480665218</v>
+        <v>672.4909068465487</v>
       </c>
       <c r="Y13" t="n">
-        <v>896.249480665218</v>
+        <v>672.4909068465487</v>
       </c>
     </row>
     <row r="14">
@@ -5261,40 +5263,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5364,7 +5366,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
         <v>1558.376451307619</v>
@@ -5373,10 +5375,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>376.9270045185177</v>
+        <v>973.0255547109412</v>
       </c>
       <c r="C16" t="n">
-        <v>376.9270045185177</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="D16" t="n">
-        <v>376.9270045185177</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E16" t="n">
-        <v>376.9270045185177</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
         <v>208.7516828383384</v>
@@ -5461,25 +5463,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383442</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324574</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W16" t="n">
-        <v>420.3226148324574</v>
+        <v>1375.466598684711</v>
       </c>
       <c r="X16" t="n">
-        <v>420.3226148324574</v>
+        <v>1375.466598684711</v>
       </c>
       <c r="Y16" t="n">
-        <v>420.3226148324574</v>
+        <v>1154.674019541181</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,40 +5500,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5549,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5601,7 +5603,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5701,22 +5703,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>675.0071030383442</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V19" t="n">
-        <v>420.3226148324574</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W19" t="n">
-        <v>130.9054447954967</v>
+        <v>674.7185717878251</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>446.7290208898078</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>225.9364417462777</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514082</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>527.3450129705744</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C22" t="n">
-        <v>527.3450129705744</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D22" t="n">
-        <v>527.3450129705744</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="E22" t="n">
-        <v>527.3450129705744</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5935,25 +5937,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1329.676237004471</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1105.890821793977</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>816.762183007535</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>816.762183007535</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W22" t="n">
-        <v>527.3450129705744</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X22" t="n">
-        <v>527.3450129705744</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y22" t="n">
-        <v>527.3450129705744</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5977,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,16 +6007,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
@@ -6063,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>247.6350999123426</v>
+        <v>124.4640073588198</v>
       </c>
       <c r="C25" t="n">
-        <v>247.6350999123426</v>
+        <v>124.4640073588198</v>
       </c>
       <c r="D25" t="n">
-        <v>247.6350999123426</v>
+        <v>124.4640073588198</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123426</v>
+        <v>124.4640073588198</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>124.4640073588198</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6169,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247858</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>675.007103038344</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V25" t="n">
-        <v>650.0761438861124</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W25" t="n">
-        <v>650.0761438861124</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X25" t="n">
-        <v>650.0761438861124</v>
+        <v>526.9050513325897</v>
       </c>
       <c r="Y25" t="n">
-        <v>429.2835647425823</v>
+        <v>306.1124721890595</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6218,16 +6220,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,10 +6244,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6257,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>2786.879505108311</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>3128.721707800139</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M27" t="n">
-        <v>3436.041841080101</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>3765.904468744134</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>4045.444533962831</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>110.0328757364142</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0328757364142</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="D28" t="n">
-        <v>110.0328757364142</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="E28" t="n">
-        <v>110.0328757364142</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="F28" t="n">
-        <v>110.0328757364142</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U28" t="n">
-        <v>874.9271131227918</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="V28" t="n">
-        <v>620.2426249169049</v>
+        <v>3782.260917288848</v>
       </c>
       <c r="W28" t="n">
-        <v>330.8254548799443</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="X28" t="n">
-        <v>330.8254548799443</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="Y28" t="n">
-        <v>110.0328757364142</v>
+        <v>3570.689985294728</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,40 +6448,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6503,10 +6505,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>4452.039182201071</v>
       </c>
       <c r="V31" t="n">
-        <v>731.3177283550796</v>
+        <v>4197.354693995184</v>
       </c>
       <c r="W31" t="n">
-        <v>441.900558318119</v>
+        <v>3907.937523958223</v>
       </c>
       <c r="X31" t="n">
-        <v>213.9110074201016</v>
+        <v>3679.947973060206</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
     </row>
     <row r="32">
@@ -6695,19 +6697,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6716,25 +6718,25 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
@@ -6765,25 +6767,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643586</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>554.6108700904385</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C34" t="n">
-        <v>554.6108700904385</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D34" t="n">
-        <v>404.4942306781028</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E34" t="n">
-        <v>404.4942306781028</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F34" t="n">
-        <v>404.4942306781028</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>236.3189089979234</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6880,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1098.712528333286</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>844.0280401273991</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>554.6108700904385</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>554.6108700904385</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y34" t="n">
-        <v>554.6108700904385</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="35">
@@ -6917,43 +6919,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6962,22 +6964,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7014,28 +7016,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>303.4575213834697</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>550.2226492899338</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M36" t="n">
-        <v>857.5427825698953</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N36" t="n">
-        <v>1661.954360834046</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
         <v>97.21709146028584</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1335.881268530309</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1112.095853319815</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>822.9672145333731</v>
       </c>
       <c r="V37" t="n">
-        <v>982.3063390367042</v>
+        <v>568.2827263274862</v>
       </c>
       <c r="W37" t="n">
-        <v>692.8891689997437</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X37" t="n">
-        <v>464.8996181017263</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y37" t="n">
-        <v>244.1070389581962</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,19 +7165,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7190,13 +7192,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>570.0299571250974</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>816.7950850315615</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.911127126629</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>972.2646934632138</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7357,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="T40" t="n">
-        <v>1332.888432463345</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="U40" t="n">
-        <v>1043.759793676903</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="V40" t="n">
-        <v>789.0753054710162</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="W40" t="n">
-        <v>499.6581354340557</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="X40" t="n">
-        <v>499.6581354340557</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="Y40" t="n">
-        <v>278.8655562905255</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7403,7 +7405,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7442,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2525.058920465858</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L42" t="n">
-        <v>2771.824048372322</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M42" t="n">
-        <v>3484.747546292012</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>4289.159124556162</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>4568.699189774859</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3459.155393916676</v>
+        <v>321.6797126268225</v>
       </c>
       <c r="C43" t="n">
-        <v>3459.155393916676</v>
+        <v>321.6797126268225</v>
       </c>
       <c r="D43" t="n">
-        <v>3459.155393916676</v>
+        <v>321.6797126268225</v>
       </c>
       <c r="E43" t="n">
-        <v>3459.155393916676</v>
+        <v>321.6797126268225</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916676</v>
+        <v>321.6797126268225</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916676</v>
+        <v>153.5043909466431</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>4437.14914771935</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>4148.020508932908</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>4148.020508932908</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>3858.603338895948</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X43" t="n">
-        <v>3630.613787997931</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="Y43" t="n">
-        <v>3459.155393916676</v>
+        <v>503.3281774570622</v>
       </c>
     </row>
     <row r="44">
@@ -7628,46 +7630,46 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7725,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L45" t="n">
-        <v>563.7235867775518</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M45" t="n">
-        <v>1332.091733170013</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>1661.954360834046</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>711.072954880832</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C46" t="n">
-        <v>542.1367719529251</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7831,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>1298.996260473455</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W46" t="n">
-        <v>1298.996260473455</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X46" t="n">
-        <v>1113.513998854602</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y46" t="n">
-        <v>892.7214197110717</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
   </sheetData>
@@ -8067,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627882</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -8948,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>96.03744927814574</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10188,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10592,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>15.83804904622875</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>159.0121003135246</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11136,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229575</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L45" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.9848720704544</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>249.6466090939504</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23650,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>136.870325971137</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,25 +23703,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>274.2721755859242</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>52.3998233988054</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23944,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>192.3581855871784</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24139,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>133.142098661519</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>140.337529169499</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24376,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>139.5191217238289</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>227.4559937631187</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>153.8059420300105</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>77.06777566241246</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24886,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>79.43092547709071</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>103.0576765518772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>121.6222744695469</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25321,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>146.4805103800789</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>26.93116351641919</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>23.61454994042668</v>
       </c>
       <c r="T40" t="n">
-        <v>57.18000134477742</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25798,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>93.18940187604244</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25834,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>48.84084321165241</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26071,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -26080,13 +26082,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>42.08221638637286</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>849676.7773109154</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>849676.7773109154</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="14">
@@ -26314,19 +26316,19 @@
         <v>574729.2389049989</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049992</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="E2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327923</v>
       </c>
       <c r="F2" t="n">
         <v>547440.6836327923</v>
       </c>
       <c r="G2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="H2" t="n">
         <v>547440.6836327921</v>
@@ -26335,22 +26337,22 @@
         <v>547440.683632792</v>
       </c>
       <c r="J2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="K2" t="n">
         <v>547440.6836327922</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="M2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="N2" t="n">
         <v>547440.6836327919</v>
       </c>
-      <c r="L2" t="n">
-        <v>547440.6836327924</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>547440.6836327919</v>
-      </c>
-      <c r="N2" t="n">
-        <v>547440.6836327922</v>
-      </c>
-      <c r="O2" t="n">
-        <v>547440.6836327921</v>
       </c>
       <c r="P2" t="n">
         <v>547440.6836327921</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26421,13 +26423,13 @@
         <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
         <v>29303.54555230233</v>
@@ -26436,7 +26438,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
         <v>29303.54555230233</v>
@@ -26445,13 +26447,13 @@
         <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230238</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="O4" t="n">
         <v>29303.54555230233</v>
@@ -26473,22 +26475,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
@@ -26497,13 +26499,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-272588.4956947813</v>
+        <v>-272588.4956947812</v>
       </c>
       <c r="C6" t="n">
-        <v>317379.3835197632</v>
+        <v>317379.3835197636</v>
       </c>
       <c r="D6" t="n">
-        <v>317379.383519763</v>
+        <v>317379.3835197631</v>
       </c>
       <c r="E6" t="n">
-        <v>-99010.22434512302</v>
+        <v>-99010.22434512267</v>
       </c>
       <c r="F6" t="n">
-        <v>426149.8121317733</v>
+        <v>426149.8121317734</v>
       </c>
       <c r="G6" t="n">
-        <v>426149.812131773</v>
+        <v>426149.8121317732</v>
       </c>
       <c r="H6" t="n">
         <v>426149.8121317732</v>
@@ -26543,22 +26545,22 @@
         <v>426149.812131773</v>
       </c>
       <c r="J6" t="n">
-        <v>249726.5929391804</v>
+        <v>249726.5929391802</v>
       </c>
       <c r="K6" t="n">
+        <v>426149.8121317733</v>
+      </c>
+      <c r="L6" t="n">
+        <v>426149.8121317731</v>
+      </c>
+      <c r="M6" t="n">
+        <v>291348.7968979361</v>
+      </c>
+      <c r="N6" t="n">
         <v>426149.8121317729</v>
       </c>
-      <c r="L6" t="n">
-        <v>426149.8121317735</v>
-      </c>
-      <c r="M6" t="n">
-        <v>291348.7968979357</v>
-      </c>
-      <c r="N6" t="n">
-        <v>426149.8121317733</v>
-      </c>
       <c r="O6" t="n">
-        <v>426149.8121317732</v>
+        <v>426149.8121317729</v>
       </c>
       <c r="P6" t="n">
         <v>426149.8121317732</v>
@@ -26735,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>116.7497573142985</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>283.3558084808867</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27537,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>96.44405126592655</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>6.771212764859751</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>284.6387826854509</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>129.2226540149254</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27670,19 +27672,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27792,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>125.6900249618413</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>184.1204997904589</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27871,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>68.34788041689579</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27913,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>110.7778401266443</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>10.74592769735759</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>127.3067052009581</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -29809,7 +29811,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35018,22 +35020,22 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,22 +35734,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>345.29515423417</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36689,7 +36691,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36908,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>564.1615374009399</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
@@ -36926,10 +36928,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37312,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>166.413487634168</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>309.5875389014639</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L45" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2235490.128225232</v>
+        <v>2228473.113333519</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>40.56696428347047</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>40.62363183383287</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -831,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>155.3197306044665</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>22.35153719005456</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>51.14216186552222</v>
       </c>
       <c r="G5" t="n">
-        <v>284.5615160058696</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>38.85099796338665</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>20.97516701831656</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>159.3199338524823</v>
       </c>
       <c r="I8" t="n">
-        <v>83.58343582796546</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,13 +1308,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>124.2196940949806</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>119.455025053688</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>2.491034229877574</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>76.61619673827119</v>
       </c>
       <c r="W16" t="n">
-        <v>12.25082275066678</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>127.4321567831319</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>26.97444673954864</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>39.61035505917221</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>169.1770053157902</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>209.4552226741785</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>158.484964453384</v>
       </c>
       <c r="U31" t="n">
-        <v>206.8064269214866</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465657</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>12.16692371255582</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>51.44029960352438</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>174.3062600431766</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>55.72442649149368</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>1.63435765602946</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4140,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.64843562452406</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>183.6274390026643</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2036.885894456657</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>1667.923377516245</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>1309.657678909495</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E2" t="n">
-        <v>923.8694263112502</v>
+        <v>923.9266662611112</v>
       </c>
       <c r="F2" t="n">
-        <v>512.8835215216427</v>
+        <v>512.9407614715037</v>
       </c>
       <c r="G2" t="n">
-        <v>94.91971341982958</v>
+        <v>94.97695336969059</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>94.97695336969059</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2423.485734520778</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2423.485734520778</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>2423.485734520778</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>705.5516739134498</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>557.4050153476338</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>343.1165921657965</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942401</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1865.381229508782</v>
+        <v>1748.280186455193</v>
       </c>
       <c r="C5" t="n">
-        <v>1496.41871256837</v>
+        <v>1748.280186455193</v>
       </c>
       <c r="D5" t="n">
-        <v>1138.15301396162</v>
+        <v>1390.014487848443</v>
       </c>
       <c r="E5" t="n">
-        <v>752.3647613633757</v>
+        <v>1004.226235250198</v>
       </c>
       <c r="F5" t="n">
-        <v>341.3788565737681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X5" t="n">
-        <v>2642.120401548716</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="Y5" t="n">
-        <v>2251.981069572904</v>
+        <v>2134.880026519315</v>
       </c>
     </row>
     <row r="6">
@@ -4637,34 +4637,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>235.9284171545818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>235.9284171545818</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D7" t="n">
-        <v>235.9284171545818</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E7" t="n">
-        <v>235.9284171545818</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545818</v>
+        <v>262.1862143682812</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545818</v>
+        <v>93.1864141066136</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>677.5250276678174</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>463.2366044859801</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>235.9284171545818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>235.9284171545818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>235.9284171545818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>235.9284171545818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9284171545818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.9284171545818</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1353.10866026757</v>
+        <v>962.9693282917576</v>
       </c>
       <c r="C8" t="n">
-        <v>1353.10866026757</v>
+        <v>594.006811351346</v>
       </c>
       <c r="D8" t="n">
-        <v>1353.10866026757</v>
+        <v>235.7411127445955</v>
       </c>
       <c r="E8" t="n">
-        <v>967.320407669326</v>
+        <v>235.7411127445955</v>
       </c>
       <c r="F8" t="n">
-        <v>556.3345028797185</v>
+        <v>228.795611995392</v>
       </c>
       <c r="G8" t="n">
-        <v>138.3706947779053</v>
+        <v>214.8722079339829</v>
       </c>
       <c r="H8" t="n">
-        <v>138.3706947779053</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="W8" t="n">
-        <v>2113.174258592772</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X8" t="n">
-        <v>1739.708500331692</v>
+        <v>1739.708500331691</v>
       </c>
       <c r="Y8" t="n">
-        <v>1739.708500331692</v>
+        <v>1349.569168355879</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>698.7120650600564</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>698.7120650600564</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>698.7120650600564</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F10" t="n">
-        <v>551.822117562146</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>382.8223173004784</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>225.0739447330085</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>672.4909068465487</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C13" t="n">
-        <v>503.5547239186418</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1378.254629089531</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>1154.469213879036</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383442</v>
+        <v>1154.469213879036</v>
       </c>
       <c r="V13" t="n">
-        <v>672.4909068465487</v>
+        <v>1154.469213879036</v>
       </c>
       <c r="W13" t="n">
-        <v>672.4909068465487</v>
+        <v>865.0520438420759</v>
       </c>
       <c r="X13" t="n">
-        <v>672.4909068465487</v>
+        <v>637.0624929440586</v>
       </c>
       <c r="Y13" t="n">
-        <v>672.4909068465487</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="14">
@@ -5260,7 +5260,7 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405197</v>
@@ -5269,34 +5269,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5357,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>973.0255547109412</v>
+        <v>527.0436439308535</v>
       </c>
       <c r="C16" t="n">
-        <v>804.0893717830343</v>
+        <v>527.0436439308535</v>
       </c>
       <c r="D16" t="n">
-        <v>653.9727323706985</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E16" t="n">
-        <v>506.0596387883054</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
         <v>208.7516828383384</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>1387.841167119728</v>
+        <v>708.6921087610932</v>
       </c>
       <c r="W16" t="n">
-        <v>1375.466598684711</v>
+        <v>708.6921087610932</v>
       </c>
       <c r="X16" t="n">
-        <v>1375.466598684711</v>
+        <v>708.6921087610932</v>
       </c>
       <c r="Y16" t="n">
-        <v>1154.674019541181</v>
+        <v>708.6921087610932</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,31 +5500,31 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5594,22 +5594,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>964.1357418247858</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>964.1357418247858</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>674.7185717878251</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>446.7290208898078</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.9364417462777</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5746,25 +5746,25 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5831,22 +5831,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>420.3226148324571</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>130.9054447954965</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,34 +5974,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6010,7 +6010,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6074,19 +6074,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>124.4640073588198</v>
+        <v>284.1174986139257</v>
       </c>
       <c r="C25" t="n">
-        <v>124.4640073588198</v>
+        <v>284.1174986139257</v>
       </c>
       <c r="D25" t="n">
-        <v>124.4640073588198</v>
+        <v>284.1174986139257</v>
       </c>
       <c r="E25" t="n">
-        <v>124.4640073588198</v>
+        <v>284.1174986139257</v>
       </c>
       <c r="F25" t="n">
-        <v>124.4640073588198</v>
+        <v>137.2275511160153</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>137.2275511160153</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6180,19 +6180,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>1298.996260473455</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V25" t="n">
-        <v>1044.311772267568</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W25" t="n">
-        <v>754.894602230607</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X25" t="n">
-        <v>526.9050513325897</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="Y25" t="n">
-        <v>306.1124721890595</v>
+        <v>465.7659634441654</v>
       </c>
     </row>
     <row r="26">
@@ -6208,43 +6208,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6308,19 +6308,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115524</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1943.227873734288</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3570.689985294728</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C28" t="n">
-        <v>3570.689985294728</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D28" t="n">
-        <v>3570.689985294728</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E28" t="n">
-        <v>3570.689985294728</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>3570.689985294728</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4326.074044281177</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>4036.945405494735</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>3782.260917288848</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W28" t="n">
-        <v>3570.689985294728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X28" t="n">
-        <v>3570.689985294728</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y28" t="n">
-        <v>3570.689985294728</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,40 +6448,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3459.155393916676</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="C31" t="n">
-        <v>3459.155393916676</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916676</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916676</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916676</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916676</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>4660.934562929845</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>4660.934562929845</v>
+        <v>1227.755344439542</v>
       </c>
       <c r="U31" t="n">
-        <v>4452.039182201071</v>
+        <v>938.6267056531004</v>
       </c>
       <c r="V31" t="n">
-        <v>4197.354693995184</v>
+        <v>683.9422174472136</v>
       </c>
       <c r="W31" t="n">
-        <v>3907.937523958223</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="X31" t="n">
-        <v>3679.947973060206</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="Y31" t="n">
-        <v>3459.155393916676</v>
+        <v>394.5250474102529</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6685,31 +6685,31 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6718,34 +6718,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6767,28 +6767,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6900,10 +6900,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,49 +6922,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7022,22 +7022,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1196.088769018224</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>573.2461374003673</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>404.3099544724604</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>404.3099544724604</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>256.3968608900708</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>109.5069133921604</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1335.881268530309</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1112.095853319815</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>822.9672145333731</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V37" t="n">
-        <v>568.2827263274862</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W37" t="n">
-        <v>278.8655562905255</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X37" t="n">
-        <v>278.8655562905255</v>
+        <v>754.894602230607</v>
       </c>
       <c r="Y37" t="n">
-        <v>278.8655562905255</v>
+        <v>754.894602230607</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G38" t="n">
         <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
@@ -7180,46 +7180,46 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>570.0299571250974</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>816.7950850315615</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M39" t="n">
-        <v>1124.115218311523</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N39" t="n">
-        <v>1453.977845975556</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>972.2646934632138</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>822.148054050878</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1322.84934122136</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1322.84934122136</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1322.84934122136</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>1322.84934122136</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>1322.84934122136</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7399,49 +7399,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7490,19 +7490,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>644.6755122555218</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619858</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O42" t="n">
         <v>1808.163466324677</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>321.6797126268225</v>
+        <v>732.6596981028219</v>
       </c>
       <c r="C43" t="n">
-        <v>321.6797126268225</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="D43" t="n">
-        <v>321.6797126268225</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E43" t="n">
-        <v>321.6797126268225</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F43" t="n">
-        <v>321.6797126268225</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G43" t="n">
-        <v>153.5043909466431</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>731.3177283550796</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>731.3177283550796</v>
+        <v>953.4522772463521</v>
       </c>
       <c r="X43" t="n">
-        <v>503.3281774570622</v>
+        <v>953.4522772463521</v>
       </c>
       <c r="Y43" t="n">
-        <v>503.3281774570622</v>
+        <v>732.6596981028219</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7727,19 +7727,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>644.6755122555218</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>891.4406401619858</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441947</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O45" t="n">
         <v>1808.163466324677</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>324.3840174432676</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C46" t="n">
-        <v>155.4478345153607</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D46" t="n">
-        <v>155.4478345153607</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E46" t="n">
-        <v>155.4478345153607</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="V46" t="n">
-        <v>1244.231782352015</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="W46" t="n">
-        <v>954.8146123150548</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="X46" t="n">
-        <v>726.8250614170374</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y46" t="n">
-        <v>506.0324822735073</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8935,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>288.4091825776757</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>182.034074286795</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>159.0121003135246</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>85.30006332127817</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11153,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11162,7 +11162,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -11399,7 +11399,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>78.46578492991524</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>249.6466090939504</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>175.5214465855568</v>
       </c>
       <c r="W16" t="n">
-        <v>274.2721755859242</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.3998233988054</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>133.142098661519</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>139.5191217238289</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>109.3034733083639</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24420,7 +24420,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>10.65497486614709</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>77.06777566241246</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24849,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>63.06259660500527</v>
       </c>
       <c r="U31" t="n">
-        <v>79.43092547709071</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>154.3266447508218</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>146.4805103800789</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,22 +25599,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>23.61454994042668</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>93.18940187604244</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25839,7 +25839,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>284.8886406805615</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.8451328388535</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,22 +26073,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>37.92012205572496</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109154</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109151</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109154</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="14">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049991</v>
+      </c>
+      <c r="C2" t="n">
         <v>574729.2389049989</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.2389049992</v>
-      </c>
       <c r="D2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327916</v>
       </c>
       <c r="G2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.683632792</v>
       </c>
       <c r="H2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="I2" t="n">
         <v>547440.683632792</v>
       </c>
       <c r="J2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="K2" t="n">
         <v>547440.6836327921</v>
-      </c>
-      <c r="K2" t="n">
-        <v>547440.6836327922</v>
       </c>
       <c r="L2" t="n">
         <v>547440.6836327921</v>
@@ -26349,13 +26349,13 @@
         <v>547440.6836327922</v>
       </c>
       <c r="N2" t="n">
-        <v>547440.6836327919</v>
+        <v>547440.6836327923</v>
       </c>
       <c r="O2" t="n">
         <v>547440.6836327919</v>
       </c>
       <c r="P2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327919</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
         <v>29303.54555230233</v>
@@ -26438,7 +26438,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="J4" t="n">
         <v>29303.54555230233</v>
@@ -26447,13 +26447,13 @@
         <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230238</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
         <v>29303.54555230233</v>
@@ -26475,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-272588.4956947812</v>
+        <v>-272588.495694781</v>
       </c>
       <c r="C6" t="n">
-        <v>317379.3835197636</v>
+        <v>317379.3835197632</v>
       </c>
       <c r="D6" t="n">
-        <v>317379.3835197631</v>
+        <v>317379.383519763</v>
       </c>
       <c r="E6" t="n">
-        <v>-99010.22434512267</v>
+        <v>-99984.81560484465</v>
       </c>
       <c r="F6" t="n">
-        <v>426149.8121317734</v>
+        <v>425175.220872051</v>
       </c>
       <c r="G6" t="n">
-        <v>426149.8121317732</v>
+        <v>425175.2208720513</v>
       </c>
       <c r="H6" t="n">
-        <v>426149.8121317732</v>
+        <v>425175.2208720512</v>
       </c>
       <c r="I6" t="n">
-        <v>426149.812131773</v>
+        <v>425175.2208720513</v>
       </c>
       <c r="J6" t="n">
-        <v>249726.5929391802</v>
+        <v>248752.0016794587</v>
       </c>
       <c r="K6" t="n">
-        <v>426149.8121317733</v>
+        <v>425175.2208720514</v>
       </c>
       <c r="L6" t="n">
-        <v>426149.8121317731</v>
+        <v>425175.2208720514</v>
       </c>
       <c r="M6" t="n">
-        <v>291348.7968979361</v>
+        <v>290374.2056382144</v>
       </c>
       <c r="N6" t="n">
-        <v>426149.8121317729</v>
+        <v>425175.2208720517</v>
       </c>
       <c r="O6" t="n">
-        <v>426149.8121317729</v>
+        <v>425175.2208720512</v>
       </c>
       <c r="P6" t="n">
-        <v>426149.8121317732</v>
+        <v>425175.2208720512</v>
       </c>
     </row>
   </sheetData>
@@ -26740,46 +26740,46 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>283.3558084808867</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>111.3076844110284</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27551,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>11.99007165458445</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.771212764859751</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>355.7338838761892</v>
       </c>
       <c r="G5" t="n">
-        <v>129.2226540149254</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,7 +27675,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>117.3198908784085</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>125.6900249618413</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>164.6028389118749</v>
       </c>
       <c r="I8" t="n">
-        <v>68.34788041689579</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,13 +28013,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,13 +28028,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>10.74592769735759</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -29811,7 +29811,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30152,7 +30152,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>3.487817442267745e-12</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,19 +35260,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35971,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>410.0098272511729</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36676,10 +36676,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875337</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>389.1274892183196</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,25 +37390,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>309.5875389014639</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>395.7244403717445</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2228473.113333519</v>
+        <v>2233412.376182551</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>40.62363183383273</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>40.62363183383287</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -831,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>155.3197306044665</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>208.9978294690247</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>51.14216186552222</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>11.75685339834053</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>6.90848140332574</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,13 +1071,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>38.85099796338665</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>5.983388191319379</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1150,7 +1150,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>159.3199338524823</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544537</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>15.93285474807237</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>119.455025053688</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>76.61619673827119</v>
+        <v>20.82998177290624</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>39.61035505917221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>206.8064269214817</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2608,7 +2608,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>169.1770053157902</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>224.1935651837709</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>158.484964453384</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>169.7438101404423</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002178</v>
+        <v>118.4898845065069</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113187</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465657</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>12.16692371255582</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>170.5809693952292</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151917</v>
+        <v>168.8938881659672</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>54.97117385624344</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>1.63435765602946</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>98.09286522833015</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>183.6274390026643</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4312,37 +4312,37 @@
         <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>1309.714918859356</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>923.9266662611112</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>512.9407614715037</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>94.97695336969059</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>94.97695336969059</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>550.5654064942401</v>
+        <v>517.0200655508537</v>
       </c>
       <c r="C4" t="n">
-        <v>550.5654064942401</v>
+        <v>517.0200655508537</v>
       </c>
       <c r="D4" t="n">
-        <v>550.5654064942401</v>
+        <v>517.0200655508537</v>
       </c>
       <c r="E4" t="n">
-        <v>550.5654064942401</v>
+        <v>517.0200655508537</v>
       </c>
       <c r="F4" t="n">
-        <v>550.5654064942401</v>
+        <v>517.0200655508537</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942401</v>
+        <v>517.0200655508537</v>
       </c>
       <c r="X4" t="n">
-        <v>550.5654064942401</v>
+        <v>517.0200655508537</v>
       </c>
       <c r="Y4" t="n">
-        <v>550.5654064942401</v>
+        <v>517.0200655508537</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1748.280186455193</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C5" t="n">
-        <v>1748.280186455193</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D5" t="n">
-        <v>1390.014487848443</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>1004.226235250198</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2630.244792055442</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2630.244792055442</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2376.483006693534</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="W5" t="n">
-        <v>2134.880026519315</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="X5" t="n">
-        <v>2134.880026519315</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y5" t="n">
-        <v>2134.880026519315</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="6">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785273</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661916</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="E7" t="n">
-        <v>409.0761618661916</v>
+        <v>573.2376265802779</v>
       </c>
       <c r="F7" t="n">
-        <v>262.1862143682812</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="G7" t="n">
-        <v>93.1864141066136</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>962.9693282917576</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C8" t="n">
-        <v>594.006811351346</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="D8" t="n">
-        <v>235.7411127445955</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="E8" t="n">
-        <v>235.7411127445955</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>228.795611995392</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>214.8722079339829</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862885</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>2113.174258592771</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>1739.708500331691</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>1349.569168355879</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4892,7 +4892,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799423</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5041,10 +5041,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5123,22 +5123,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>416.2699138005285</v>
+        <v>282.2470670630133</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>113.3108841351064</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>113.3108841351064</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>113.3108841351064</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1378.254629089531</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1154.469213879036</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1154.469213879036</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>1154.469213879036</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W13" t="n">
-        <v>865.0520438420759</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X13" t="n">
-        <v>637.0624929440586</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="Y13" t="n">
-        <v>416.2699138005285</v>
+        <v>282.2470670630133</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5278,28 +5278,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5357,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619856</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>527.0436439308535</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C16" t="n">
-        <v>527.0436439308535</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D16" t="n">
-        <v>376.9270045185177</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E16" t="n">
-        <v>376.9270045185177</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5472,16 +5472,16 @@
         <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>708.6921087610932</v>
+        <v>765.0418208473204</v>
       </c>
       <c r="W16" t="n">
-        <v>708.6921087610932</v>
+        <v>475.6246508103599</v>
       </c>
       <c r="X16" t="n">
-        <v>708.6921087610932</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y16" t="n">
-        <v>708.6921087610932</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="17">
@@ -5506,19 +5506,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5594,22 +5594,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5764,7 +5764,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5776,28 +5776,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201023</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201023</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201023</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201023</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201023</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5910,16 +5910,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609671</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550802</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181196</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201023</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201023</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823768</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514066</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,31 +6056,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
         <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>1595.645765494011</v>
+        <v>1595.645765494012</v>
       </c>
       <c r="N24" t="n">
-        <v>1925.508393158044</v>
+        <v>1925.508393158045</v>
       </c>
       <c r="O24" t="n">
         <v>2331.418122136705</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>284.1174986139257</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>284.1174986139257</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>284.1174986139257</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>284.1174986139257</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>137.2275511160153</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>137.2275511160153</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6147,52 +6147,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974662</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980059</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585742</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.99626047345</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U25" t="n">
-        <v>1009.867621687013</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>755.183133481126</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>465.7659634441654</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>465.7659634441654</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>465.7659634441654</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,40 +6211,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6308,25 +6308,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1333.825180851558</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1663.687808515591</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1943.227873734288</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>879.2482765610114</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C28" t="n">
-        <v>710.3120936331045</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D28" t="n">
-        <v>560.1954542207687</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6417,19 +6417,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>983.329485121187</v>
       </c>
       <c r="W28" t="n">
-        <v>1498.916270557902</v>
+        <v>693.9123150842264</v>
       </c>
       <c r="X28" t="n">
-        <v>1270.926719659885</v>
+        <v>465.9227641862091</v>
       </c>
       <c r="Y28" t="n">
-        <v>1050.134140516355</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,25 +6448,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6475,7 +6475,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6484,7 +6484,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1227.755344439542</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>938.6267056531004</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>683.9422174472136</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W31" t="n">
-        <v>394.5250474102529</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X31" t="n">
-        <v>394.5250474102529</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="Y31" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6694,16 +6694,16 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,7 +6718,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6864,43 +6864,43 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799313</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471142</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974662</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980059</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585741</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557897</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557897</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598086</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
         <v>97.21709146028584</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155897</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805479</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
@@ -6940,25 +6940,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
@@ -6970,13 +6970,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>573.2461374003673</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C37" t="n">
-        <v>404.3099544724604</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D37" t="n">
-        <v>404.3099544724604</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E37" t="n">
-        <v>256.3968608900708</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F37" t="n">
-        <v>109.5069133921604</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028587</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1326.612261067772</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>1326.612261067772</v>
       </c>
       <c r="U37" t="n">
-        <v>1298.996260473455</v>
+        <v>1037.48362228133</v>
       </c>
       <c r="V37" t="n">
-        <v>1044.311772267568</v>
+        <v>782.7991340754431</v>
       </c>
       <c r="W37" t="n">
-        <v>754.894602230607</v>
+        <v>493.3819640384826</v>
       </c>
       <c r="X37" t="n">
-        <v>754.894602230607</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y37" t="n">
-        <v>754.894602230607</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>1328.316383521572</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>1073.631895315685</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>784.2147252787242</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>784.2147252787242</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>563.4221461351941</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7438,10 +7438,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7490,22 +7490,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>732.6596981028219</v>
+        <v>321.6797126268225</v>
       </c>
       <c r="C43" t="n">
-        <v>563.7235151749151</v>
+        <v>152.7435296989156</v>
       </c>
       <c r="D43" t="n">
-        <v>563.7235151749151</v>
+        <v>152.7435296989156</v>
       </c>
       <c r="E43" t="n">
-        <v>415.8104215925219</v>
+        <v>152.7435296989156</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>152.7435296989156</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>152.7435296989156</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>955.1031435655738</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>953.4522772463521</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X43" t="n">
-        <v>953.4522772463521</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="Y43" t="n">
-        <v>732.6596981028219</v>
+        <v>503.3281774570622</v>
       </c>
     </row>
     <row r="44">
@@ -7648,13 +7648,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7727,22 +7727,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>796.3635653766202</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.683698656582</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N45" t="n">
-        <v>1433.546326320615</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>711.072954880832</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C46" t="n">
-        <v>542.1367719529251</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7836,22 +7836,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1113.513998854602</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1113.513998854602</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V46" t="n">
-        <v>1113.513998854602</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W46" t="n">
-        <v>1113.513998854602</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X46" t="n">
-        <v>1113.513998854602</v>
+        <v>847.2212943649431</v>
       </c>
       <c r="Y46" t="n">
-        <v>892.7214197110717</v>
+        <v>626.428715221413</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747122</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8771,10 +8771,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>73.64859338270685</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>159.0121003135244</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720718</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9731,7 +9731,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>127.6461250100647</v>
+        <v>127.6461250100641</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>182.034074286795</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10910,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>85.30006332127817</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11077,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11375,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>73.53204524670076</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>129.4881932748589</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23466,7 +23466,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>78.46578492991524</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>175.5214465855568</v>
+        <v>231.3076615509218</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>50.96659166315931</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>109.3034733083639</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24417,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>14.74113413690756</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>10.65497486614709</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642771</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>27.94407814005712</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>63.06259660500527</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>48.8408432116525</v>
       </c>
     </row>
     <row r="32">
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338545</v>
+        <v>79.43092547709632</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>154.3266447508218</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>27.33984058837405</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25554,16 +25554,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338568</v>
+        <v>117.3434642326101</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>93.94265451129269</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25839,7 +25839,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>284.8886406805615</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>81.73911495360714</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>37.92012205572496</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>849676.7773109154</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>849676.7773109154</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109154</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="16">
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049986</v>
+      </c>
+      <c r="C2" t="n">
         <v>574729.2389049991</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.2389049989</v>
-      </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327916</v>
+        <v>547440.6836327924</v>
       </c>
       <c r="G2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="H2" t="n">
         <v>547440.683632792</v>
-      </c>
-      <c r="H2" t="n">
-        <v>547440.6836327919</v>
       </c>
       <c r="I2" t="n">
         <v>547440.683632792</v>
       </c>
       <c r="J2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327923</v>
       </c>
       <c r="K2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.683632792</v>
       </c>
       <c r="L2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="M2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327923</v>
       </c>
       <c r="N2" t="n">
         <v>547440.6836327923</v>
@@ -26355,7 +26355,7 @@
         <v>547440.6836327919</v>
       </c>
       <c r="P2" t="n">
-        <v>547440.6836327919</v>
+        <v>547440.6836327914</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925926</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26435,22 +26435,22 @@
         <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230224</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230226</v>
       </c>
       <c r="K4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230226</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.5455523023</v>
       </c>
       <c r="N4" t="n">
         <v>29303.54555230233</v>
@@ -26478,13 +26478,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26496,22 +26496,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-272588.495694781</v>
+        <v>-272588.4956947814</v>
       </c>
       <c r="C6" t="n">
-        <v>317379.3835197632</v>
+        <v>317379.3835197635</v>
       </c>
       <c r="D6" t="n">
-        <v>317379.383519763</v>
+        <v>317379.3835197629</v>
       </c>
       <c r="E6" t="n">
-        <v>-99984.81560484465</v>
+        <v>-99107.68347109517</v>
       </c>
       <c r="F6" t="n">
-        <v>425175.220872051</v>
+        <v>426052.3530058013</v>
       </c>
       <c r="G6" t="n">
-        <v>425175.2208720513</v>
+        <v>426052.353005801</v>
       </c>
       <c r="H6" t="n">
-        <v>425175.2208720512</v>
+        <v>426052.3530058005</v>
       </c>
       <c r="I6" t="n">
-        <v>425175.2208720513</v>
+        <v>426052.3530058009</v>
       </c>
       <c r="J6" t="n">
-        <v>248752.0016794587</v>
+        <v>249629.1338132087</v>
       </c>
       <c r="K6" t="n">
-        <v>425175.2208720514</v>
+        <v>426052.3530058009</v>
       </c>
       <c r="L6" t="n">
-        <v>425175.2208720514</v>
+        <v>426052.353005801</v>
       </c>
       <c r="M6" t="n">
-        <v>290374.2056382144</v>
+        <v>291251.3377719641</v>
       </c>
       <c r="N6" t="n">
-        <v>425175.2208720517</v>
+        <v>426052.3530058012</v>
       </c>
       <c r="O6" t="n">
-        <v>425175.2208720512</v>
+        <v>426052.3530058007</v>
       </c>
       <c r="P6" t="n">
-        <v>425175.2208720512</v>
+        <v>426052.3530058003</v>
       </c>
     </row>
   </sheetData>
@@ -26740,46 +26740,46 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>314.0594097868502</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>111.3076844110284</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>11.99007165458445</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>77.52516886756632</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>355.7338838761892</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>162.658859410631</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>160.3383396953021</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>117.3198908784085</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>375.9469818809424</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>164.6028389118749</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,7 +27912,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -29231,7 +29231,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>-5.135068634091005e-12</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29453,7 +29453,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>-5.135068634091005e-12</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -29936,7 +29936,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>-5.135068634091005e-12</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-1.010302749350269e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30152,7 +30152,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>3.487817442267745e-12</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,43 +32548,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,43 +32785,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35260,10 +35260,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>224.2240319706461</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>366.105515245049</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35971,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415061</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>410.0098272511729</v>
+        <v>410.0098272511725</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778055986</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36676,10 +36676,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>389.1274892183196</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799234</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37630,22 +37630,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>395.7244403717445</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37797,13 +37797,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>383.956422297167</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
